--- a/master-research.xlsx
+++ b/master-research.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7496D77-404B-427E-8E8A-17A729017307}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0286D2C-FB0F-4264-BA96-DB8B512771E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -83,16 +83,58 @@
   </si>
   <si>
     <t>Security relevante paper</t>
+  </si>
+  <si>
+    <t>https://ac.els-cdn.com/S1532046412001864/1-s2.0-S1532046412001864-main.pdf?_tid=5f4ff49a-f78c-49de-9427-223b2a2f20e7&amp;acdnat=1541607810_c58636d85ded8224a9d1f5341b64adec</t>
+  </si>
+  <si>
+    <t>Security and privacy in electronic health records: A systematic literature review</t>
+  </si>
+  <si>
+    <t>José Luis Fernández-Alemán, Inmaculada Carrión Señor  , Pedro Ángel Oliver Lozoya, Ambrosio Toval</t>
+  </si>
+  <si>
+    <t>A total of 49 articles were selected, of which 26 used standards or regulations related to the privacy and security of EHR data. The most widely used regulations are the Health Insurance Portability and Accountability Act (HIPAA) and the European Data Protection Directive 95/46/EC. We found 23 articles that used symmetric key and/or asymmetric key schemes and 13 articles that employed the pseudo anonymity technique in EHR systems. A total of 11 articles propose the use of a digital signature scheme based on PKI (Public Key Infrastructure) and 13 articles propose a login/password (seven of them combined with a digital certificate or PIN) for authentication. The preferred access control model appears to be Role-Based Access Control (RBAC), since it is used in 27 studies. Ten of these studies discuss who should define the EHR systems’ roles. Eleven studies discuss who should provide access to EHR data: patients or health entities. Sixteen of the articles reviewed indicate that it is necessary to override defined access policies in the case of an emergency. In 25 articles an audit-log of the system is produced. Only four studies mention that system users and/or health staff should be trained in security and privacy. Conclusions: Recent years have witnessed the design of standards and the promulgation of directives concerning security and privacy in EHR systems. However, more work should be done to adopt these regulations and to deploy secure EHR systems.</t>
+  </si>
+  <si>
+    <t>Security requirements for e-government services: a methodological approach for developing a common PKI-based security policy</t>
+  </si>
+  <si>
+    <t>Costas Lambrinoudakisa, Stefanos Gritzalisa , Fredj Dridib , Günther Pernulb</t>
+  </si>
+  <si>
+    <t>The concept of one-stop on-line government is not science fiction any more. On the contrary, the high reliability and performance of communication links, combined with architectural models that facilitate transparent access to distributed computational and storage resources, propel the development of integrated e-government platforms that support increased citizen mobility. The price we have to pay is the complexity introduced in the design of the security mechanisms required for protecting several heterogeneous information systems— each one supporting some of the services offered through the e-government integrated environment—and ensuring user privacy. This paper demonstrates that the security services offered by Public Key Infrastructure (PKI) can be employed for fulfilling most of the identified security requirements for an integrated e-government platform. The list of security requirements has been compiled by adopting an organisational framework that facilitates the classification of e-government services according to the security requirements they exhibit. The proposed approach has been applied, as a case study, to the e-government system ‘Webocrat’, identifying its security requirements and then designing a PKI-based security architecture for fulfilling them.</t>
+  </si>
+  <si>
+    <t>http://isrc.ccs.asia.edu.tw/yourslides/files/69/2003Security%20requirements%20for%20e-government%20services--a%20methodological%20approach%20for%20developing%20a%20common%20PKI-based%20security%20policy.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cse.iitb.ac.in/~madhumita/aps2/references/gcs/PKI%20based%20security%20for%20peer%20to%20peer%20information%20sharing.pdf</t>
+  </si>
+  <si>
+    <t>PKI-Based Security for Peer-to-Peer Information Sharing</t>
+  </si>
+  <si>
+    <t>Karlo Berket, Abdelilah Essiari and Artur Muratas</t>
+  </si>
+  <si>
+    <t>Free flow of information is the feature that has made peer-to-peer information sharing applications popular. However, this very feature holds back the acceptance of these applications by the corporate and scientific communities. In these communities it is important to provide confidentiality and integrity of communication and to enforce access control to shared resources. We present a collection of security mechanisms that can be used to satisfy these security requirements. Our solutions are based on established and proven security techniques and we utilize existing technologies when possible. As a proof of concept, we have developed an information sharing system, called scishare, which integrates a number of these security mechanisms to provide a secure environment for information sharing. This system will allow a broader set of user communities to benefit from peer-to-peer information sharing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,7 +177,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -416,15 +458,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="111.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="112.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -445,9 +491,6 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -464,13 +507,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -478,13 +521,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -492,122 +535,65 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/master-research.xlsx
+++ b/master-research.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0286D2C-FB0F-4264-BA96-DB8B512771E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601F6E4C-09B5-4AAB-9AE7-E0A17A5FE774}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -119,13 +119,16 @@
   </si>
   <si>
     <t>Free flow of information is the feature that has made peer-to-peer information sharing applications popular. However, this very feature holds back the acceptance of these applications by the corporate and scientific communities. In these communities it is important to provide confidentiality and integrity of communication and to enforce access control to shared resources. We present a collection of security mechanisms that can be used to satisfy these security requirements. Our solutions are based on established and proven security techniques and we utilize existing technologies when possible. As a proof of concept, we have developed an information sharing system, called scishare, which integrates a number of these security mechanisms to provide a secure environment for information sharing. This system will allow a broader set of user communities to benefit from peer-to-peer information sharing.</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/b888/43af4b849d1f2db8095e1264cc51696e6058.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,14 +183,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,7 +475,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +483,7 @@
     <col min="1" max="1" width="111.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="112.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -516,7 +530,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -544,6 +558,9 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -593,7 +610,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{A6435821-1C63-4749-B807-A0BE6182BA9B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>